--- a/Data/Processed/Summary.xlsx
+++ b/Data/Processed/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\pet-inflation\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23B752-1B7A-4B77-8442-AC6C3FA1B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB57E194-2D42-4616-9EDE-CA9D2769BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key_Assumptions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Type</t>
   </si>
@@ -37,21 +37,12 @@
     <t>Assumption</t>
   </si>
   <si>
-    <t>Historical vet cost data assumed representative of future trend.</t>
-  </si>
-  <si>
     <t>External variables (wages, CPI, energy) used as regressors; correlations checked.</t>
   </si>
   <si>
-    <t>Forecast confidence ±10% depending on scenario.</t>
-  </si>
-  <si>
     <t>No sudden policy or regulatory shocks assumed.</t>
   </si>
   <si>
-    <t>Limitation</t>
-  </si>
-  <si>
     <t>Forecasts based on historical trends; extreme events may not be captured.</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t>Data before 2018 considered but may be less representative; trend checked with rolling windows.</t>
   </si>
   <si>
-    <t>Rainfall has minor impact; other regressors have minimal effect.</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -125,6 +113,24 @@
   </si>
   <si>
     <t>Compared across all models</t>
+  </si>
+  <si>
+    <t>SARIMA was assumed to be the best model fore forecasting due to seasonality and upward trend.</t>
+  </si>
+  <si>
+    <t>Formulas for "Claims Cost" and "Premium" were assumed along with few variables.</t>
+  </si>
+  <si>
+    <t>Wages has the highest impact; impact is positive; high significance.</t>
+  </si>
+  <si>
+    <t>Pet population has little to no impact.</t>
+  </si>
+  <si>
+    <t>Incoporating regressors did not improve model performance.</t>
+  </si>
+  <si>
+    <t>Observation</t>
   </si>
 </sst>
 </file>
@@ -456,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -489,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -497,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -505,39 +511,55 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35D508C-3216-4F4A-9984-82BCDA924A96}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -562,79 +584,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
